--- a/Table/Table_xls/f福利奖励/s上线礼包配置.xlsx
+++ b/Table/Table_xls/f福利奖励/s上线礼包配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21465" windowHeight="12255"/>
+    <workbookView windowWidth="23040" windowHeight="9347"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -715,10 +715,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -769,6 +769,28 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -785,14 +807,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -808,6 +823,74 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -830,93 +913,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,7 +970,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,13 +1036,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1000,49 +1108,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,97 +1144,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,11 +1164,56 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1208,51 +1253,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1266,148 +1266,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1859,7 +1859,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
@@ -2246,7 +2246,7 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.25" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="2" customWidth="1"/>
@@ -51809,7 +51809,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Table/Table_xls/f福利奖励/s上线礼包配置.xlsx
+++ b/Table/Table_xls/f福利奖励/s上线礼包配置.xlsx
@@ -770,9 +770,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -783,33 +783,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -829,7 +829,53 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -843,14 +889,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -861,7 +899,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -879,44 +917,6 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -970,7 +970,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,7 +988,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -994,67 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,13 +1090,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,25 +1126,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1120,37 +1138,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1164,17 +1164,50 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1203,30 +1236,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1238,26 +1247,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1266,148 +1266,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1450,17 +1450,19 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1859,14 +1861,14 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N8" sqref="N8"/>
+      <selection pane="bottomRight" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.5" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
   <cols>
     <col min="1" max="2" width="7.5" style="10"/>
     <col min="3" max="3" width="7.5" style="11"/>
-    <col min="4" max="4" width="7.5" style="12"/>
+    <col min="4" max="4" width="7.66666666666667" style="12"/>
     <col min="5" max="5" width="7.5" style="10"/>
     <col min="6" max="6" width="7.5" style="11"/>
     <col min="7" max="7" width="7.5" style="12"/>
@@ -2064,7 +2066,7 @@
       <c r="C5" s="11">
         <v>0</v>
       </c>
-      <c r="D5" s="15">
+      <c r="D5" s="16">
         <v>310103</v>
       </c>
       <c r="E5" s="17">
@@ -2109,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="16">
-        <v>310104</v>
+        <v>310103</v>
       </c>
       <c r="E6" s="17">
         <v>1</v>
@@ -2152,8 +2154,8 @@
       <c r="C7" s="11">
         <v>0</v>
       </c>
-      <c r="D7" s="15">
-        <v>310104</v>
+      <c r="D7" s="16">
+        <v>310103</v>
       </c>
       <c r="E7" s="10">
         <v>1</v>
@@ -2197,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="16">
-        <v>310105</v>
+        <v>310103</v>
       </c>
       <c r="E8" s="10">
         <v>3</v>
